--- a/scenarios/cough/Scenario.xlsx
+++ b/scenarios/cough/Scenario.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t xml:space="preserve">Process</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t xml:space="preserve">Usability2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction</t>
   </si>
 </sst>
 </file>
@@ -77,7 +80,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -106,11 +109,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -161,7 +159,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -171,10 +169,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -255,15 +249,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="76.14"/>
   </cols>
   <sheetData>
@@ -287,7 +281,7 @@
       <c r="A3" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -295,7 +289,7 @@
       <c r="A4" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -303,7 +297,7 @@
       <c r="A5" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -311,7 +305,7 @@
       <c r="A6" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -319,7 +313,7 @@
       <c r="A7" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -327,7 +321,7 @@
       <c r="A8" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -335,7 +329,7 @@
       <c r="A9" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -343,7 +337,7 @@
       <c r="A10" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -351,7 +345,7 @@
       <c r="A11" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -359,7 +353,7 @@
       <c r="A12" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -367,7 +361,7 @@
       <c r="A13" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -375,7 +369,15 @@
       <c r="A14" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>3</v>
       </c>
     </row>

--- a/scenarios/cough/Scenario.xlsx
+++ b/scenarios/cough/Scenario.xlsx
@@ -28,49 +28,49 @@
     <t xml:space="preserve">Action</t>
   </si>
   <si>
+    <t xml:space="preserve">Introduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEFER()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APICalmer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APISolver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dropout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explanation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fasttrack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Night</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrevMed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Safety</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TwoWays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usability1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usability2</t>
+  </si>
+  <si>
     <t xml:space="preserve">API</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEFER()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APICalmer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APISolver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dropout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explanation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fasttrack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Night</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PrevMed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Safety</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TwoWays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usability1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usability2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introduction</t>
   </si>
 </sst>
 </file>
@@ -252,10 +252,10 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="76.14"/>
@@ -269,8 +269,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -373,7 +373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>16</v>
       </c>
